--- a/Test Data/1099Series.xlsx
+++ b/Test Data/1099Series.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS366-SABARISINDU S\Pictures\TBS2.0Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS366-SABARISINDU S\Pictures\TBS 2.0 Automation\TBS 2.0\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BFD516-D1C8-4E5F-8F7E-B0E78F6E4C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43AF024-12A7-434E-867D-EE31B0EAF780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{BF8FB366-E824-4449-8925-E73C98060CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{BF8FB366-E824-4449-8925-E73C98060CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="1099Nec" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="265">
   <si>
     <r>
       <rPr>
@@ -1052,6 +1052,24 @@
   <si>
     <t>143 e main street</t>
   </si>
+  <si>
+    <t>TBS-NEC_TS-009</t>
+  </si>
+  <si>
+    <t>666258369</t>
+  </si>
+  <si>
+    <t>Owen Blake</t>
+  </si>
+  <si>
+    <t>TBS-NEC_TS-010</t>
+  </si>
+  <si>
+    <t>Diana May</t>
+  </si>
+  <si>
+    <t>000258412</t>
+  </si>
 </sst>
 </file>
 
@@ -1062,7 +1080,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1188,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -5543,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36064994-83A5-4473-9AD6-EC69E072BB2F}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15"/>
@@ -5963,9 +5987,7 @@
       <c r="D9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
         <v>49</v>
       </c>
@@ -5995,14 +6017,17 @@
       <c r="A10" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>37</v>
+      <c r="B10" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>49</v>
@@ -6032,14 +6057,17 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="16.5" thickBot="1">
-      <c r="C11" s="24" t="s">
-        <v>123</v>
+      <c r="B11" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>49</v>
@@ -6069,6 +6097,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="E-mail Address" promptTitle="E-mail Address" prompt="Enter Payer's e-mail address here. It can be maximum of 40 characters" sqref="JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1" xr:uid="{CD769F1C-4BD9-44D8-B06E-419E7E5BE2C3}">
       <formula1>40</formula1>
@@ -6135,7 +6164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E11CF25-62D6-4E97-82EE-078A14486666}">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/1099Series.xlsx
+++ b/Test Data/1099Series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS366-SABARISINDU S\Pictures\TBS 2.0 Automation\TBS 2.0\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43AF024-12A7-434E-867D-EE31B0EAF780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE566E-E605-47E6-B80D-0B270DCB4946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{BF8FB366-E824-4449-8925-E73C98060CA5}"/>
   </bookViews>
@@ -5567,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36064994-83A5-4473-9AD6-EC69E072BB2F}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15"/>
@@ -6045,7 +6045,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="W10" s="9">
         <f t="shared" si="0"/>
